--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1756029.200420607</v>
+        <v>1753572.956674765</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9357313.992084216</v>
+        <v>9357313.992084218</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="G2" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.284744599290094</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.864605585025089</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.284744599290094</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.284744599290094</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="G5" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="H5" t="n">
-        <v>4.284744599290094</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="W6" t="n">
-        <v>4.284744599290094</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="X6" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="D7" t="n">
-        <v>1.563303864183583</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.28474459928992</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
     </row>
     <row r="8">
@@ -1151,49 +1151,49 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>13.47865120333094</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,52 +1291,52 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>13.47865120333094</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>139.4343762166687</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>174.9699020364427</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.458826027977</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957295</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.4851762594661</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>122.7768979154143</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433954</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,19 +1844,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>137.8249569732005</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>220.618735918889</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1904,10 +1904,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2081,19 +2081,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>168.425731797861</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>203.7075738168957</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2138,13 +2138,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2318,19 +2318,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2378,10 +2378,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.04318711639923</v>
+        <v>14.2274656571924</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>52.07852635745763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.91799931635074</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.0332881705226</v>
+        <v>380.0332881705224</v>
       </c>
       <c r="C32" t="n">
-        <v>362.5723382780495</v>
+        <v>362.5723382780494</v>
       </c>
       <c r="D32" t="n">
-        <v>351.9824881277249</v>
+        <v>351.9824881277248</v>
       </c>
       <c r="E32" t="n">
-        <v>379.2298165793038</v>
+        <v>379.2298165793036</v>
       </c>
       <c r="F32" t="n">
-        <v>404.1754922487534</v>
+        <v>404.1754922487533</v>
       </c>
       <c r="G32" t="n">
-        <v>408.2211721604954</v>
+        <v>408.2211721604953</v>
       </c>
       <c r="H32" t="n">
-        <v>291.9072108943624</v>
+        <v>291.9072108943623</v>
       </c>
       <c r="I32" t="n">
-        <v>38.87637627996793</v>
+        <v>38.87637627996782</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.4872082952178</v>
+        <v>106.4872082952177</v>
       </c>
       <c r="T32" t="n">
-        <v>201.2174166466621</v>
+        <v>201.217416646662</v>
       </c>
       <c r="U32" t="n">
-        <v>248.2946184659439</v>
+        <v>248.2946184659438</v>
       </c>
       <c r="V32" t="n">
-        <v>325.0517049771769</v>
+        <v>325.0517049771768</v>
       </c>
       <c r="W32" t="n">
-        <v>346.540415224455</v>
+        <v>346.5404152244549</v>
       </c>
       <c r="X32" t="n">
-        <v>367.030547185511</v>
+        <v>367.0305471855109</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.5373851630956</v>
+        <v>383.5373851630955</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.1314266889792</v>
+        <v>177.1314266889791</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5462676056698</v>
+        <v>164.5462676056697</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9149195252543</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.7334091536111</v>
+        <v>143.733409153611</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>93.65186691688007</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7162980306418</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>216.848395783211</v>
       </c>
       <c r="U34" t="n">
-        <v>283.5112847126549</v>
+        <v>283.5112847126547</v>
       </c>
       <c r="V34" t="n">
-        <v>249.43708983087</v>
+        <v>249.4370898308698</v>
       </c>
       <c r="W34" t="n">
-        <v>283.822444843633</v>
+        <v>283.8224448436329</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.009101896079</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.8840998591367</v>
+        <v>121.3096866526245</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,7 +4037,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988209</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
         <v>322.7559640598765</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="E2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="F2" t="n">
-        <v>9.630936309746637</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="G2" t="n">
-        <v>4.717193294569779</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="H2" t="n">
-        <v>4.717193294569779</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I2" t="n">
-        <v>4.717193294569779</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3891684468020071</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="M2" t="n">
-        <v>5.205127975976845</v>
+        <v>9.82650328175027</v>
       </c>
       <c r="N2" t="n">
-        <v>10.02108750515168</v>
+        <v>9.82650328175027</v>
       </c>
       <c r="O2" t="n">
-        <v>14.64246281092552</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="P2" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="R2" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="S2" t="n">
-        <v>14.5446793249235</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="T2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="U2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="W2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5446793249235</v>
+        <v>10.2166544771553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="C3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="D3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="E3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="F3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="G3" t="n">
-        <v>5.302911461978866</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K3" t="n">
-        <v>5.205127975976845</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="L3" t="n">
-        <v>5.205127975976845</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="M3" t="n">
-        <v>9.826503281750682</v>
+        <v>10.02108750515127</v>
       </c>
       <c r="N3" t="n">
-        <v>9.826503281750682</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="O3" t="n">
-        <v>9.826503281750682</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="P3" t="n">
-        <v>14.64246281092552</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="R3" t="n">
-        <v>14.5446793249235</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="S3" t="n">
-        <v>10.21665447715572</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="T3" t="n">
-        <v>10.21665447715572</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="U3" t="n">
-        <v>10.21665447715572</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="V3" t="n">
-        <v>10.21665447715572</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="W3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="X3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.21665447715572</v>
+        <v>5.302911461978644</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="C4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="D4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="E4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="F4" t="n">
-        <v>10.21665447715572</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="G4" t="n">
-        <v>10.21665447715572</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="H4" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I4" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J4" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="L4" t="n">
-        <v>5.205127975976845</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="M4" t="n">
-        <v>10.02108750515168</v>
+        <v>10.02108750515127</v>
       </c>
       <c r="N4" t="n">
-        <v>14.83704703432652</v>
+        <v>14.8370470343259</v>
       </c>
       <c r="O4" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="P4" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.13039749233258</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="R4" t="n">
-        <v>15.13039749233258</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="S4" t="n">
-        <v>15.13039749233258</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="T4" t="n">
-        <v>15.13039749233258</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="U4" t="n">
-        <v>15.13039749233258</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="V4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="W4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="X4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="C5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="D5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="E5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="F5" t="n">
-        <v>14.5446793249235</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="G5" t="n">
-        <v>9.630936309746637</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="H5" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I5" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K5" t="n">
-        <v>5.205127975976845</v>
+        <v>5.010543752575632</v>
       </c>
       <c r="L5" t="n">
-        <v>10.02108750515168</v>
+        <v>9.82650328175027</v>
       </c>
       <c r="M5" t="n">
-        <v>10.02108750515168</v>
+        <v>9.82650328175027</v>
       </c>
       <c r="N5" t="n">
-        <v>14.64246281092552</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="O5" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="P5" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="R5" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="S5" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.45842234010036</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="U5" t="n">
-        <v>19.45842234010036</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="V5" t="n">
-        <v>19.45842234010036</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="W5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="X5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.45842234010036</v>
+        <v>10.2166544771553</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.302911461978866</v>
+        <v>4.717193294569586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3891684468020071</v>
+        <v>4.717193294569586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="L6" t="n">
-        <v>5.205127975976845</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="M6" t="n">
-        <v>10.02108750515168</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="N6" t="n">
-        <v>10.02108750515168</v>
+        <v>10.02108750515127</v>
       </c>
       <c r="O6" t="n">
-        <v>14.64246281092552</v>
+        <v>10.02108750515127</v>
       </c>
       <c r="P6" t="n">
-        <v>14.64246281092552</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="R6" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="S6" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="T6" t="n">
-        <v>19.45842234010036</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="U6" t="n">
-        <v>19.45842234010036</v>
+        <v>14.54467932492289</v>
       </c>
       <c r="V6" t="n">
-        <v>19.45842234010036</v>
+        <v>9.630936309746239</v>
       </c>
       <c r="W6" t="n">
-        <v>15.13039749233258</v>
+        <v>4.717193294569586</v>
       </c>
       <c r="X6" t="n">
-        <v>10.21665447715572</v>
+        <v>4.717193294569586</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.302911461978866</v>
+        <v>4.717193294569586</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.70949230463923</v>
+        <v>5.302911461978644</v>
       </c>
       <c r="C7" t="n">
-        <v>16.70949230463923</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="D7" t="n">
-        <v>15.13039749233258</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="E7" t="n">
-        <v>10.21665447715572</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="F7" t="n">
-        <v>5.302911461978866</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3891684468020071</v>
+        <v>0.3891684468019909</v>
       </c>
       <c r="L7" t="n">
-        <v>5.205127975976845</v>
+        <v>5.205127975976628</v>
       </c>
       <c r="M7" t="n">
-        <v>10.02108750515168</v>
+        <v>9.82650328175027</v>
       </c>
       <c r="N7" t="n">
-        <v>14.64246281092552</v>
+        <v>14.64246281092491</v>
       </c>
       <c r="O7" t="n">
-        <v>19.45842234010036</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="P7" t="n">
-        <v>16.70949230463923</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.70949230463923</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="R7" t="n">
-        <v>16.70949230463923</v>
+        <v>19.45842234009955</v>
       </c>
       <c r="S7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="T7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="U7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="V7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="W7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="X7" t="n">
-        <v>16.70949230463923</v>
+        <v>15.13039749233195</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.70949230463923</v>
+        <v>10.2166544771553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,16 +4805,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4826,28 +4826,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S8" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U8" t="n">
-        <v>45.75363943919166</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V8" t="n">
-        <v>45.75363943919166</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
         <v>1.224219001210804</v>
@@ -4884,22 +4884,22 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
         <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4911,22 +4911,22 @@
         <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
         <v>1.224219001210804</v>
@@ -4969,7 +4969,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
         <v>46.0612399205565</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="S10" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="V10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>1514.421949781758</v>
       </c>
       <c r="C11" t="n">
-        <v>1192.90906578942</v>
+        <v>1514.421949781758</v>
       </c>
       <c r="D11" t="n">
-        <v>1192.90906578942</v>
+        <v>1203.605884123081</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.066261530158</v>
+        <v>865.2672644729098</v>
       </c>
       <c r="F11" t="n">
-        <v>688.5299896886241</v>
+        <v>688.529989688624</v>
       </c>
       <c r="G11" t="n">
         <v>320.9071724816939</v>
@@ -5039,10 +5039,10 @@
         <v>70.77320503853433</v>
       </c>
       <c r="J11" t="n">
-        <v>259.6523359975598</v>
+        <v>259.6523359975597</v>
       </c>
       <c r="K11" t="n">
-        <v>593.4717096874062</v>
+        <v>593.471709687406</v>
       </c>
       <c r="L11" t="n">
         <v>1044.505922935815</v>
@@ -5051,13 +5051,13 @@
         <v>1578.037827607739</v>
       </c>
       <c r="N11" t="n">
-        <v>2124.816644666522</v>
+        <v>2124.816644666521</v>
       </c>
       <c r="O11" t="n">
-        <v>2627.789115545859</v>
+        <v>2627.789115545858</v>
       </c>
       <c r="P11" t="n">
-        <v>3231.356823614231</v>
+        <v>3022.563481903036</v>
       </c>
       <c r="Q11" t="n">
         <v>3479.643185369914</v>
@@ -5084,7 +5084,7 @@
         <v>2196.261855925545</v>
       </c>
       <c r="Y11" t="n">
-        <v>1853.572156897807</v>
+        <v>1853.572156897806</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.8049430874589</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C12" t="n">
-        <v>771.3519138063319</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D12" t="n">
-        <v>622.4175041450808</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E12" t="n">
-        <v>463.1800491396252</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F12" t="n">
-        <v>316.6454911665103</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G12" t="n">
-        <v>180.2823909991288</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H12" t="n">
-        <v>89.7804966369963</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I12" t="n">
         <v>70.77320503853433</v>
       </c>
       <c r="J12" t="n">
-        <v>164.4504745291515</v>
+        <v>164.4504745291516</v>
       </c>
       <c r="K12" t="n">
-        <v>402.7146735094984</v>
+        <v>402.7146735094987</v>
       </c>
       <c r="L12" t="n">
         <v>769.412833822164</v>
@@ -5139,7 +5139,7 @@
         <v>2411.673073493092</v>
       </c>
       <c r="Q12" t="n">
-        <v>2569.314631139692</v>
+        <v>2569.314631139691</v>
       </c>
       <c r="R12" t="n">
         <v>2569.170277732207</v>
@@ -5148,16 +5148,16 @@
         <v>2439.732391225687</v>
       </c>
       <c r="T12" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U12" t="n">
         <v>2019.021544037958</v>
       </c>
       <c r="V12" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W12" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X12" t="n">
         <v>1321.780578872481</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7273384116456</v>
+        <v>763.7273384116463</v>
       </c>
       <c r="C13" t="n">
-        <v>642.240788431812</v>
+        <v>642.2407884318127</v>
       </c>
       <c r="D13" t="n">
-        <v>539.5737819675496</v>
+        <v>539.5737819675503</v>
       </c>
       <c r="E13" t="n">
-        <v>439.1103213332294</v>
+        <v>439.1103213332306</v>
       </c>
       <c r="F13" t="n">
-        <v>339.6700067833924</v>
+        <v>339.6700067833935</v>
       </c>
       <c r="G13" t="n">
-        <v>219.4168031061846</v>
+        <v>219.4168031061859</v>
       </c>
       <c r="H13" t="n">
         <v>120.6492492721157</v>
@@ -5197,13 +5197,13 @@
         <v>70.77320503853433</v>
       </c>
       <c r="J13" t="n">
-        <v>162.4012227378763</v>
+        <v>162.4012227378765</v>
       </c>
       <c r="K13" t="n">
-        <v>412.8937909391593</v>
+        <v>412.8937909391595</v>
       </c>
       <c r="L13" t="n">
-        <v>775.9589746400621</v>
+        <v>775.9589746400623</v>
       </c>
       <c r="M13" t="n">
         <v>1166.621405492018</v>
@@ -5218,7 +5218,7 @@
         <v>2179.483037309175</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.598718714096</v>
+        <v>2303.598718714097</v>
       </c>
       <c r="R13" t="n">
         <v>2261.217894419698</v>
@@ -5233,16 +5233,16 @@
         <v>1701.011426785914</v>
       </c>
       <c r="V13" t="n">
-        <v>1493.7765715281</v>
+        <v>1493.776571528101</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.809034439213</v>
+        <v>1251.809034439214</v>
       </c>
       <c r="X13" t="n">
         <v>1071.269116489269</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.926170293812</v>
+        <v>897.9261702938127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.395211181174</v>
+        <v>1514.421949781758</v>
       </c>
       <c r="C14" t="n">
-        <v>1362.882327188836</v>
+        <v>1514.421949781758</v>
       </c>
       <c r="D14" t="n">
-        <v>1052.066261530158</v>
+        <v>1390.404881180329</v>
       </c>
       <c r="E14" t="n">
         <v>1052.066261530158</v>
       </c>
       <c r="F14" t="n">
-        <v>688.529989688624</v>
+        <v>688.5299896886239</v>
       </c>
       <c r="G14" t="n">
-        <v>320.9071724816939</v>
+        <v>320.9071724816938</v>
       </c>
       <c r="H14" t="n">
         <v>70.77320503853433</v>
@@ -5276,19 +5276,19 @@
         <v>70.77320503853433</v>
       </c>
       <c r="J14" t="n">
-        <v>427.0579850179128</v>
+        <v>259.6523359975597</v>
       </c>
       <c r="K14" t="n">
-        <v>760.8773587077592</v>
+        <v>593.471709687406</v>
       </c>
       <c r="L14" t="n">
-        <v>1211.911571956168</v>
+        <v>1044.505922935815</v>
       </c>
       <c r="M14" t="n">
-        <v>1745.443476628092</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.609986377717</v>
+        <v>2124.816644666521</v>
       </c>
       <c r="O14" t="n">
         <v>2836.582457257054</v>
@@ -5312,7 +5312,7 @@
         <v>3111.21025795609</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.597003560593</v>
+        <v>2827.597003560592</v>
       </c>
       <c r="W14" t="n">
         <v>2522.277981238552</v>
@@ -5321,7 +5321,7 @@
         <v>2196.261855925545</v>
       </c>
       <c r="Y14" t="n">
-        <v>1853.572156897807</v>
+        <v>1853.572156897806</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.8049430874595</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C15" t="n">
-        <v>771.3519138063325</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D15" t="n">
-        <v>622.4175041450812</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E15" t="n">
-        <v>463.1800491396258</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F15" t="n">
-        <v>316.6454911665108</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G15" t="n">
-        <v>180.2823909991289</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H15" t="n">
-        <v>89.78049663699639</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I15" t="n">
         <v>70.77320503853433</v>
@@ -5379,22 +5379,22 @@
         <v>2569.314631139691</v>
       </c>
       <c r="R15" t="n">
-        <v>2569.170277732208</v>
+        <v>2569.170277732207</v>
       </c>
       <c r="S15" t="n">
         <v>2439.732391225687</v>
       </c>
       <c r="T15" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U15" t="n">
         <v>2019.021544037958</v>
       </c>
       <c r="V15" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W15" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X15" t="n">
         <v>1321.780578872481</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7273384116453</v>
+        <v>763.727338411646</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2407884318117</v>
+        <v>642.2407884318123</v>
       </c>
       <c r="D16" t="n">
-        <v>539.5737819675493</v>
+        <v>539.57378196755</v>
       </c>
       <c r="E16" t="n">
-        <v>439.1103213332295</v>
+        <v>439.1103213332302</v>
       </c>
       <c r="F16" t="n">
-        <v>339.6700067833924</v>
+        <v>339.6700067833923</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4168031061846</v>
+        <v>219.4168031061845</v>
       </c>
       <c r="H16" t="n">
         <v>120.6492492721157</v>
@@ -5437,10 +5437,10 @@
         <v>162.4012227378765</v>
       </c>
       <c r="K16" t="n">
-        <v>412.8937909391594</v>
+        <v>412.8937909391595</v>
       </c>
       <c r="L16" t="n">
-        <v>775.9589746400621</v>
+        <v>775.958974640062</v>
       </c>
       <c r="M16" t="n">
         <v>1166.621405492018</v>
@@ -5479,7 +5479,7 @@
         <v>1071.269116489269</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.9261702938118</v>
+        <v>897.9261702938123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1840.438075094765</v>
+        <v>1514.421949781758</v>
       </c>
       <c r="C17" t="n">
-        <v>1701.220946839007</v>
+        <v>1192.90906578942</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.40488118033</v>
+        <v>882.0930001307427</v>
       </c>
       <c r="E17" t="n">
-        <v>1052.066261530158</v>
+        <v>543.7543804805717</v>
       </c>
       <c r="F17" t="n">
-        <v>688.5299896886241</v>
+        <v>320.9071724816938</v>
       </c>
       <c r="G17" t="n">
-        <v>320.9071724816939</v>
+        <v>320.9071724816938</v>
       </c>
       <c r="H17" t="n">
         <v>70.77320503853433</v>
@@ -5513,22 +5513,22 @@
         <v>70.77320503853433</v>
       </c>
       <c r="J17" t="n">
-        <v>259.6523359975597</v>
+        <v>427.0579850179128</v>
       </c>
       <c r="K17" t="n">
-        <v>593.471709687406</v>
+        <v>760.8773587077593</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.505922935815</v>
+        <v>1253.299264647009</v>
       </c>
       <c r="M17" t="n">
-        <v>1786.831169318935</v>
+        <v>1786.831169318934</v>
       </c>
       <c r="N17" t="n">
-        <v>2333.609986377717</v>
+        <v>2333.609986377716</v>
       </c>
       <c r="O17" t="n">
-        <v>2836.582457257054</v>
+        <v>2836.582457257053</v>
       </c>
       <c r="P17" t="n">
         <v>3231.356823614231</v>
@@ -5555,10 +5555,10 @@
         <v>2522.277981238552</v>
       </c>
       <c r="X17" t="n">
-        <v>2522.277981238552</v>
+        <v>2196.261855925545</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.588282210813</v>
+        <v>1853.572156897807</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>945.8049430874587</v>
+        <v>945.8049430874589</v>
       </c>
       <c r="C18" t="n">
-        <v>771.3519138063317</v>
+        <v>771.3519138063319</v>
       </c>
       <c r="D18" t="n">
-        <v>622.4175041450804</v>
+        <v>622.4175041450808</v>
       </c>
       <c r="E18" t="n">
-        <v>463.1800491396249</v>
+        <v>463.1800491396252</v>
       </c>
       <c r="F18" t="n">
-        <v>316.6454911665099</v>
+        <v>316.6454911665103</v>
       </c>
       <c r="G18" t="n">
-        <v>180.282390999128</v>
+        <v>180.2823909991288</v>
       </c>
       <c r="H18" t="n">
-        <v>89.78049663699555</v>
+        <v>89.7804966369963</v>
       </c>
       <c r="I18" t="n">
         <v>70.77320503853433</v>
@@ -5595,7 +5595,7 @@
         <v>164.4504745291516</v>
       </c>
       <c r="K18" t="n">
-        <v>402.7146735094987</v>
+        <v>402.7146735094988</v>
       </c>
       <c r="L18" t="n">
         <v>769.412833822164</v>
@@ -5613,7 +5613,7 @@
         <v>2411.673073493092</v>
       </c>
       <c r="Q18" t="n">
-        <v>2569.314631139691</v>
+        <v>2569.314631139692</v>
       </c>
       <c r="R18" t="n">
         <v>2569.170277732207</v>
@@ -5622,16 +5622,16 @@
         <v>2439.732391225687</v>
       </c>
       <c r="T18" t="n">
-        <v>2247.089390903542</v>
+        <v>2247.089390903543</v>
       </c>
       <c r="U18" t="n">
         <v>2019.021544037958</v>
       </c>
       <c r="V18" t="n">
-        <v>1783.869435806215</v>
+        <v>1783.869435806216</v>
       </c>
       <c r="W18" t="n">
-        <v>1529.632079078013</v>
+        <v>1529.632079078014</v>
       </c>
       <c r="X18" t="n">
         <v>1321.780578872481</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7273384116453</v>
+        <v>763.7273384116451</v>
       </c>
       <c r="C19" t="n">
-        <v>642.2407884318117</v>
+        <v>642.2407884318114</v>
       </c>
       <c r="D19" t="n">
-        <v>539.5737819675493</v>
+        <v>539.5737819675491</v>
       </c>
       <c r="E19" t="n">
-        <v>439.1103213332294</v>
+        <v>439.1103213332293</v>
       </c>
       <c r="F19" t="n">
-        <v>339.6700067833924</v>
+        <v>339.6700067833923</v>
       </c>
       <c r="G19" t="n">
-        <v>219.4168031061846</v>
+        <v>219.4168031061845</v>
       </c>
       <c r="H19" t="n">
         <v>120.6492492721157</v>
@@ -5677,10 +5677,10 @@
         <v>412.8937909391595</v>
       </c>
       <c r="L19" t="n">
-        <v>775.9589746400623</v>
+        <v>775.9589746400624</v>
       </c>
       <c r="M19" t="n">
-        <v>1166.621405492018</v>
+        <v>1166.621405492017</v>
       </c>
       <c r="N19" t="n">
         <v>1554.535167450289</v>
@@ -5695,13 +5695,13 @@
         <v>2303.598718714096</v>
       </c>
       <c r="R19" t="n">
-        <v>2261.217894419698</v>
+        <v>2261.217894419697</v>
       </c>
       <c r="S19" t="n">
         <v>2116.981643194597</v>
       </c>
       <c r="T19" t="n">
-        <v>1942.664660712197</v>
+        <v>1942.664660712196</v>
       </c>
       <c r="U19" t="n">
         <v>1701.011426785913</v>
@@ -5710,13 +5710,13 @@
         <v>1493.7765715281</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.809034439213</v>
+        <v>1251.809034439212</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.269116489269</v>
+        <v>1071.269116489268</v>
       </c>
       <c r="Y19" t="n">
-        <v>897.9261702938118</v>
+        <v>897.9261702938114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1860.876239702087</v>
+        <v>1514.421949781759</v>
       </c>
       <c r="C20" t="n">
-        <v>1539.363355709748</v>
+        <v>1192.90906578942</v>
       </c>
       <c r="D20" t="n">
-        <v>1228.547290051071</v>
+        <v>1022.782063973399</v>
       </c>
       <c r="E20" t="n">
-        <v>890.2086704009005</v>
+        <v>684.4434443232281</v>
       </c>
       <c r="F20" t="n">
-        <v>526.6723985593662</v>
+        <v>320.9071724816938</v>
       </c>
       <c r="G20" t="n">
-        <v>320.9071724816939</v>
+        <v>320.9071724816938</v>
       </c>
       <c r="H20" t="n">
         <v>70.77320503853433</v>
@@ -5750,22 +5750,22 @@
         <v>70.77320503853433</v>
       </c>
       <c r="J20" t="n">
-        <v>259.6523359975598</v>
+        <v>259.6523359975597</v>
       </c>
       <c r="K20" t="n">
-        <v>593.4717096874062</v>
+        <v>593.471709687406</v>
       </c>
       <c r="L20" t="n">
         <v>1044.505922935815</v>
       </c>
       <c r="M20" t="n">
-        <v>1786.831169318934</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N20" t="n">
-        <v>2333.609986377716</v>
+        <v>2124.816644666521</v>
       </c>
       <c r="O20" t="n">
-        <v>2836.582457257053</v>
+        <v>2836.582457257054</v>
       </c>
       <c r="P20" t="n">
         <v>3231.356823614231</v>
@@ -5777,25 +5777,25 @@
         <v>3538.660251926716</v>
       </c>
       <c r="S20" t="n">
-        <v>3538.660251926716</v>
+        <v>3475.819216401885</v>
       </c>
       <c r="T20" t="n">
-        <v>3380.132137259011</v>
+        <v>3317.29110173418</v>
       </c>
       <c r="U20" t="n">
-        <v>3174.051293480921</v>
+        <v>3111.21025795609</v>
       </c>
       <c r="V20" t="n">
-        <v>3174.051293480921</v>
+        <v>2827.597003560593</v>
       </c>
       <c r="W20" t="n">
-        <v>2868.73227115888</v>
+        <v>2522.277981238552</v>
       </c>
       <c r="X20" t="n">
-        <v>2542.716145845874</v>
+        <v>2196.261855925546</v>
       </c>
       <c r="Y20" t="n">
-        <v>2200.026446818135</v>
+        <v>1853.572156897807</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>945.8049430874594</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C21" t="n">
-        <v>771.3519138063324</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D21" t="n">
-        <v>622.4175041450812</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E21" t="n">
-        <v>463.1800491396257</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F21" t="n">
-        <v>316.6454911665107</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G21" t="n">
-        <v>180.2823909991293</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H21" t="n">
-        <v>89.78049663699638</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I21" t="n">
         <v>70.77320503853433</v>
       </c>
       <c r="J21" t="n">
-        <v>164.450474529152</v>
+        <v>164.4504745291516</v>
       </c>
       <c r="K21" t="n">
-        <v>402.7146735094991</v>
+        <v>402.7146735094987</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4128338221644</v>
+        <v>769.412833822164</v>
       </c>
       <c r="M21" t="n">
         <v>1216.68915904448</v>
       </c>
       <c r="N21" t="n">
-        <v>1690.212202598935</v>
+        <v>1690.212202598934</v>
       </c>
       <c r="O21" t="n">
-        <v>2101.17348201699</v>
+        <v>2101.173482016989</v>
       </c>
       <c r="P21" t="n">
         <v>2411.673073493092</v>
       </c>
       <c r="Q21" t="n">
-        <v>2569.314631139692</v>
+        <v>2569.314631139691</v>
       </c>
       <c r="R21" t="n">
-        <v>2569.170277732208</v>
+        <v>2569.170277732207</v>
       </c>
       <c r="S21" t="n">
         <v>2439.732391225687</v>
       </c>
       <c r="T21" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U21" t="n">
-        <v>2019.021544037959</v>
+        <v>2019.021544037958</v>
       </c>
       <c r="V21" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W21" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X21" t="n">
         <v>1321.780578872481</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7273384116453</v>
+        <v>763.7273384116451</v>
       </c>
       <c r="C22" t="n">
-        <v>642.2407884318117</v>
+        <v>642.2407884318114</v>
       </c>
       <c r="D22" t="n">
-        <v>539.5737819675493</v>
+        <v>539.5737819675491</v>
       </c>
       <c r="E22" t="n">
-        <v>439.1103213332294</v>
+        <v>439.1103213332293</v>
       </c>
       <c r="F22" t="n">
-        <v>339.6700067833924</v>
+        <v>339.6700067833923</v>
       </c>
       <c r="G22" t="n">
-        <v>219.4168031061846</v>
+        <v>219.4168031061845</v>
       </c>
       <c r="H22" t="n">
-        <v>120.6492492721156</v>
+        <v>120.6492492721157</v>
       </c>
       <c r="I22" t="n">
         <v>70.77320503853433</v>
@@ -5911,13 +5911,13 @@
         <v>162.4012227378765</v>
       </c>
       <c r="K22" t="n">
-        <v>412.8937909391595</v>
+        <v>412.893790939159</v>
       </c>
       <c r="L22" t="n">
-        <v>775.9589746400623</v>
+        <v>775.9589746400618</v>
       </c>
       <c r="M22" t="n">
-        <v>1166.621405492018</v>
+        <v>1166.621405492017</v>
       </c>
       <c r="N22" t="n">
         <v>1554.535167450289</v>
@@ -5932,13 +5932,13 @@
         <v>2303.598718714096</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.217894419698</v>
+        <v>2261.217894419697</v>
       </c>
       <c r="S22" t="n">
         <v>2116.981643194597</v>
       </c>
       <c r="T22" t="n">
-        <v>1942.664660712197</v>
+        <v>1942.664660712196</v>
       </c>
       <c r="U22" t="n">
         <v>1701.011426785913</v>
@@ -5950,10 +5950,10 @@
         <v>1251.809034439212</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.269116489269</v>
+        <v>1071.269116489268</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.9261702938118</v>
+        <v>897.9261702938114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1468.364237198915</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2548.674958929621</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6151,7 +6151,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.2139837551626</v>
@@ -6227,25 +6227,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195856</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667298</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3931.363334276588</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6315,40 +6315,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.5009252592425</v>
+        <v>425.7583423057191</v>
       </c>
       <c r="C28" t="n">
-        <v>544.5647423313357</v>
+        <v>256.8221593778122</v>
       </c>
       <c r="D28" t="n">
-        <v>394.4481029189999</v>
+        <v>256.8221593778122</v>
       </c>
       <c r="E28" t="n">
-        <v>246.5350093366069</v>
+        <v>256.8221593778122</v>
       </c>
       <c r="F28" t="n">
-        <v>99.64506183869668</v>
+        <v>109.9322118799019</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.55611102446</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894823</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y28" t="n">
-        <v>895.1493900894823</v>
+        <v>425.7583423057191</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6449,10 +6449,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,22 +6467,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>3070.887536710052</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.852187039507</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4345.626553396684</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,10 +6494,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.42128699119</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6555,37 +6555,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8112129900685</v>
+        <v>472.0994283734966</v>
       </c>
       <c r="C31" t="n">
-        <v>612.8750300621616</v>
+        <v>472.0994283734966</v>
       </c>
       <c r="D31" t="n">
-        <v>462.7583906498259</v>
+        <v>472.0994283734966</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>324.1863347911035</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>177.2963872931932</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>177.2963872931932</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>177.2963872931932</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898816</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963838</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203082</v>
+        <v>653.7478932037363</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2354.286483458286</v>
+        <v>2354.286483458285</v>
       </c>
       <c r="C32" t="n">
-        <v>1988.051798328944</v>
+        <v>1988.051798328942</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.513931533262</v>
+        <v>1632.513931533261</v>
       </c>
       <c r="E32" t="n">
-        <v>1249.453510746086</v>
+        <v>1249.453510746085</v>
       </c>
       <c r="F32" t="n">
-        <v>841.1954377675472</v>
+        <v>841.1954377675467</v>
       </c>
       <c r="G32" t="n">
-        <v>428.8508194236124</v>
+        <v>428.8508194236119</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9950508434482</v>
+        <v>133.995050843448</v>
       </c>
       <c r="I32" t="n">
-        <v>94.72598389398561</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J32" t="n">
-        <v>411.1005877054335</v>
+        <v>451.010763873364</v>
       </c>
       <c r="K32" t="n">
-        <v>744.9199613952799</v>
+        <v>902.6423201355849</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.954174643688</v>
+        <v>1353.676533383994</v>
       </c>
       <c r="M32" t="n">
-        <v>2174.504477473517</v>
+        <v>2332.226836213822</v>
       </c>
       <c r="N32" t="n">
-        <v>3154.256749700164</v>
+        <v>2879.005653272604</v>
       </c>
       <c r="O32" t="n">
-        <v>4034.221400029619</v>
+        <v>3758.970303602059</v>
       </c>
       <c r="P32" t="n">
-        <v>4428.995766386796</v>
+        <v>4153.744669959236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4677.282128142479</v>
+        <v>4612.222872468225</v>
       </c>
       <c r="R32" t="n">
-        <v>4736.299194699281</v>
+        <v>4736.29919469928</v>
       </c>
       <c r="S32" t="n">
         <v>4628.736358037444</v>
@@ -6731,19 +6731,19 @@
         <v>4425.486442232735</v>
       </c>
       <c r="U32" t="n">
-        <v>4174.683797317641</v>
+        <v>4174.683797317639</v>
       </c>
       <c r="V32" t="n">
-        <v>3846.348741785139</v>
+        <v>3846.348741785137</v>
       </c>
       <c r="W32" t="n">
-        <v>3496.307918326093</v>
+        <v>3496.307918326092</v>
       </c>
       <c r="X32" t="n">
-        <v>3125.569991876082</v>
+        <v>3125.569991876081</v>
       </c>
       <c r="Y32" t="n">
-        <v>2738.158491711339</v>
+        <v>2738.158491711338</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>969.757721942911</v>
+        <v>969.7577219429107</v>
       </c>
       <c r="C33" t="n">
-        <v>795.304692661784</v>
+        <v>795.3046926617837</v>
       </c>
       <c r="D33" t="n">
-        <v>646.3702830005327</v>
+        <v>646.3702830005325</v>
       </c>
       <c r="E33" t="n">
-        <v>487.1328279950772</v>
+        <v>487.132827995077</v>
       </c>
       <c r="F33" t="n">
-        <v>340.5982700219621</v>
+        <v>340.598270021962</v>
       </c>
       <c r="G33" t="n">
-        <v>204.2351698545802</v>
+        <v>204.2351698545801</v>
       </c>
       <c r="H33" t="n">
         <v>113.7332754924477</v>
       </c>
       <c r="I33" t="n">
-        <v>94.72598389398561</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J33" t="n">
         <v>188.4032533846029</v>
@@ -6798,16 +6798,16 @@
         <v>2435.625852348544</v>
       </c>
       <c r="Q33" t="n">
-        <v>2593.267409995144</v>
+        <v>2593.267409995143</v>
       </c>
       <c r="R33" t="n">
         <v>2593.123056587659</v>
       </c>
       <c r="S33" t="n">
-        <v>2463.685170081139</v>
+        <v>2463.685170081138</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.042169758995</v>
+        <v>2271.042169758994</v>
       </c>
       <c r="U33" t="n">
         <v>2042.97432289341</v>
@@ -6816,7 +6816,7 @@
         <v>1807.822214661667</v>
       </c>
       <c r="W33" t="n">
-        <v>1553.584857933466</v>
+        <v>1553.584857933465</v>
       </c>
       <c r="X33" t="n">
         <v>1345.733357727933</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>648.1062497540013</v>
+        <v>406.1195967821479</v>
       </c>
       <c r="C34" t="n">
-        <v>481.8978986371631</v>
+        <v>239.9112456653099</v>
       </c>
       <c r="D34" t="n">
-        <v>334.5090910358961</v>
+        <v>239.9112456653099</v>
       </c>
       <c r="E34" t="n">
-        <v>189.3238292645715</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="F34" t="n">
-        <v>189.3238292645715</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="G34" t="n">
-        <v>189.3238292645715</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="H34" t="n">
-        <v>189.3238292645715</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="I34" t="n">
-        <v>94.72598389398561</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J34" t="n">
         <v>142.5221642989496</v>
       </c>
       <c r="K34" t="n">
-        <v>349.1828952058544</v>
+        <v>349.1828952058545</v>
       </c>
       <c r="L34" t="n">
-        <v>668.4162416123789</v>
+        <v>668.4162416123792</v>
       </c>
       <c r="M34" t="n">
-        <v>1015.246835169956</v>
+        <v>1015.246835169957</v>
       </c>
       <c r="N34" t="n">
-        <v>1359.328759833849</v>
+        <v>1359.32875983385</v>
       </c>
       <c r="O34" t="n">
-        <v>1661.331906712291</v>
+        <v>1661.331906712292</v>
       </c>
       <c r="P34" t="n">
         <v>1896.612955103979</v>
       </c>
       <c r="Q34" t="n">
-        <v>1976.896799214522</v>
+        <v>1976.896799214523</v>
       </c>
       <c r="R34" t="n">
-        <v>1976.896799214522</v>
+        <v>1976.896799214523</v>
       </c>
       <c r="S34" t="n">
-        <v>1870.112659789631</v>
+        <v>1976.896799214523</v>
       </c>
       <c r="T34" t="n">
-        <v>1870.112659789631</v>
+        <v>1757.858015595118</v>
       </c>
       <c r="U34" t="n">
-        <v>1583.737624726344</v>
+        <v>1471.48298053183</v>
       </c>
       <c r="V34" t="n">
-        <v>1331.780968331526</v>
+        <v>1219.526324137012</v>
       </c>
       <c r="W34" t="n">
-        <v>1045.091630105634</v>
+        <v>932.8369859111203</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.091630105634</v>
+        <v>707.5752668241718</v>
       </c>
       <c r="Y34" t="n">
-        <v>827.0268827731722</v>
+        <v>585.0402298013187</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557145</v>
@@ -6947,25 +6947,25 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524676</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803195</v>
@@ -7078,25 +7078,25 @@
         <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7123,16 +7123,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7151,16 +7151,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7178,22 +7178,22 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.879634793969</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N38" t="n">
-        <v>2468.655602521437</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>2971.628073400774</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834457</v>
@@ -7202,7 +7202,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863831</v>
@@ -7211,13 +7211,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668915</v>
@@ -7275,25 +7275,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7315,13 +7315,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7391,16 +7391,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7421,19 +7421,19 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524676</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>3015.155006854131</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
-        <v>3728.510094301076</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7628,61 +7628,61 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1771.984857554752</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226676</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7731,22 +7731,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,46 +7801,46 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>240.6310205550121</v>
       </c>
       <c r="M2" t="n">
-        <v>235.2108388122978</v>
+        <v>235.0142890916906</v>
       </c>
       <c r="N2" t="n">
-        <v>234.277669181616</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>234.7662672861047</v>
+        <v>234.9628170067116</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0976013402946</v>
+        <v>236.0976013402944</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>142.7060445593841</v>
+        <v>142.7060445593839</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>146.8020897864363</v>
+        <v>146.9986395070432</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>136.0097679477511</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>138.8390129993553</v>
+        <v>138.8390129993551</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.8463796710466</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>139.7492818662634</v>
+        <v>139.7492818662632</v>
       </c>
       <c r="M4" t="n">
-        <v>143.7903895326301</v>
+        <v>143.7903895326299</v>
       </c>
       <c r="N4" t="n">
-        <v>132.5501500502583</v>
+        <v>132.5501500502581</v>
       </c>
       <c r="O4" t="n">
-        <v>143.1245943162608</v>
+        <v>143.1245943162606</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>224.9544566300056</v>
+        <v>224.7579069093984</v>
       </c>
       <c r="L5" t="n">
-        <v>240.6310205550123</v>
+        <v>240.6310205550121</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>234.0811194610089</v>
+        <v>234.2776691816158</v>
       </c>
       <c r="O5" t="n">
-        <v>234.9628170067118</v>
+        <v>234.9628170067116</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>143.4189853648993</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>146.9986395070434</v>
+        <v>146.9986395070432</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>136.2063176683582</v>
       </c>
       <c r="O6" t="n">
-        <v>147.2643003088625</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>138.6424632787481</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.8463796710466</v>
+        <v>144.8463796710464</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>139.7492818662634</v>
+        <v>139.7492818662632</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7903895326301</v>
+        <v>143.5938398120229</v>
       </c>
       <c r="N7" t="n">
-        <v>132.3536003296512</v>
+        <v>132.5501500502581</v>
       </c>
       <c r="O7" t="n">
-        <v>143.3211440368679</v>
+        <v>143.3211440368677</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
@@ -8465,7 +8465,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
         <v>153.7592759669778</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>210.902365364843</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>210.9023653648443</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>41.80575019277035</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>210.9023653648444</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>41.80575019276887</v>
       </c>
       <c r="M17" t="n">
-        <v>210.9023653648442</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>210.9023653648428</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>210.9023653648444</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158196</v>
       </c>
       <c r="O23" t="n">
-        <v>306.6874953089271</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>226.0494095077372</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>80.35488666587605</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>107.5040408147568</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>126.3855966773256</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>128.7833059115379</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>119.0022046185601</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>190.2350110279884</v>
+        <v>287.0017854473921</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>336.8335818149103</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.7498204251475</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.74982042514827</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>400.2032972882117</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359437</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.011440156686348</v>
+        <v>2.01144015668655</v>
       </c>
       <c r="G2" t="n">
-        <v>10.43813193010996</v>
+        <v>10.43813193011016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.011440156686348</v>
+        <v>2.01144015668655</v>
       </c>
       <c r="G5" t="n">
-        <v>10.43813193010996</v>
+        <v>10.43813193011016</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>195.5208572370006</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>184.9310070866761</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.2735287854219</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>184.9310070866761</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-8.881784197001252e-13</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>180.4727981792145</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>139.2821732042298</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>139.2821732042294</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>160.2390152179652</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.982621142629</v>
+        <v>151.7983426018358</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>94.35543628911154</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>15.43442109348737</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.9149195252542</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>142.7204945299732</v>
+        <v>142.7204945299731</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3252547660702</v>
+        <v>163.3252547660701</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0544614213627</v>
+        <v>142.0544614213626</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.65186691687995</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.23159917708929</v>
+        <v>86.23159917708918</v>
       </c>
       <c r="S34" t="n">
-        <v>81.35217380784206</v>
+        <v>187.0684718384837</v>
       </c>
       <c r="T34" t="n">
-        <v>216.8483957832111</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.0091018960791</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>94.57441320651211</v>
       </c>
     </row>
     <row r="35">
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878996.2562753903</v>
+        <v>878996.2562753902</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879549.4894310372</v>
+        <v>879549.4894310371</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888762.0310267198</v>
+        <v>888762.03102672</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574035.5487483222</v>
+        <v>574035.5487483223</v>
       </c>
       <c r="C2" t="n">
-        <v>574035.5487483221</v>
+        <v>574035.5487483223</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>546689.3322730366</v>
+        <v>546689.3322730368</v>
       </c>
       <c r="F2" t="n">
-        <v>546689.3322730366</v>
+        <v>546689.3322730367</v>
       </c>
       <c r="G2" t="n">
-        <v>546689.3322730371</v>
+        <v>546689.3322730368</v>
       </c>
       <c r="H2" t="n">
-        <v>546689.3322730367</v>
+        <v>546689.3322730369</v>
       </c>
       <c r="I2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="J2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="K2" t="n">
-        <v>555914.5016417769</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="L2" t="n">
-        <v>556996.1420177872</v>
+        <v>556996.1420177869</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049995</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.238904999</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1630.241217470363</v>
+        <v>1630.241217470295</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3242.396921450057</v>
+        <v>3242.39692145012</v>
       </c>
       <c r="E3" t="n">
         <v>1172682.444294781</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34482.34788790494</v>
+        <v>34482.34788790488</v>
       </c>
       <c r="J3" t="n">
         <v>48414.8870224179</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2160.442794366439</v>
+        <v>2160.442794366528</v>
       </c>
       <c r="M3" t="n">
         <v>209768.7628061439</v>
@@ -26424,31 +26424,31 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>61257.00748796234</v>
+        <v>61257.00748796244</v>
       </c>
       <c r="F4" t="n">
-        <v>61257.0074879624</v>
+        <v>61257.00748796244</v>
       </c>
       <c r="G4" t="n">
-        <v>61257.00748796239</v>
+        <v>61257.00748796237</v>
       </c>
       <c r="H4" t="n">
-        <v>61257.00748796234</v>
+        <v>61257.00748796243</v>
       </c>
       <c r="I4" t="n">
         <v>74601.16991356861</v>
       </c>
       <c r="J4" t="n">
-        <v>45917.41774240549</v>
+        <v>45917.41774240547</v>
       </c>
       <c r="K4" t="n">
         <v>45917.41774240548</v>
       </c>
       <c r="L4" t="n">
-        <v>47572.28822238785</v>
+        <v>47572.28822238794</v>
       </c>
       <c r="M4" t="n">
-        <v>74601.16991356856</v>
+        <v>74601.16991356861</v>
       </c>
       <c r="N4" t="n">
         <v>74601.16991356859</v>
@@ -26457,7 +26457,7 @@
         <v>74601.16991356859</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.16991356861</v>
+        <v>74601.16991356862</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33923.36801956953</v>
+        <v>33923.36801956951</v>
       </c>
       <c r="C5" t="n">
-        <v>33923.36801956953</v>
+        <v>33923.36801956951</v>
       </c>
       <c r="D5" t="n">
         <v>34558.00644092021</v>
@@ -26482,7 +26482,7 @@
         <v>81493.92066260843</v>
       </c>
       <c r="G5" t="n">
-        <v>81493.92066260843</v>
+        <v>81493.92066260845</v>
       </c>
       <c r="H5" t="n">
         <v>81493.92066260843</v>
@@ -26500,7 +26500,7 @@
         <v>95975.91266396246</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.9416748061</v>
@@ -26509,7 +26509,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123922.5070084725</v>
+        <v>123920.0295436276</v>
       </c>
       <c r="C6" t="n">
-        <v>125552.7482259429</v>
+        <v>125550.2707610978</v>
       </c>
       <c r="D6" t="n">
-        <v>123209.2212759624</v>
+        <v>123209.2212759623</v>
       </c>
       <c r="E6" t="n">
-        <v>-768744.0401723157</v>
+        <v>-768844.1826960011</v>
       </c>
       <c r="F6" t="n">
-        <v>403938.404122466</v>
+        <v>403838.2615987803</v>
       </c>
       <c r="G6" t="n">
-        <v>403938.4041224662</v>
+        <v>403838.2615987804</v>
       </c>
       <c r="H6" t="n">
-        <v>403938.4041224659</v>
+        <v>403838.2615987805</v>
       </c>
       <c r="I6" t="n">
         <v>376267.7794287192</v>
       </c>
       <c r="J6" t="n">
-        <v>365198.6786232393</v>
+        <v>365131.4831330135</v>
       </c>
       <c r="K6" t="n">
-        <v>413613.5656456577</v>
+        <v>413546.3701554318</v>
       </c>
       <c r="L6" t="n">
-        <v>411287.4983370705</v>
+        <v>411224.1658481871</v>
       </c>
       <c r="M6" t="n">
-        <v>200981.3645104803</v>
+        <v>200981.3645104801</v>
       </c>
       <c r="N6" t="n">
-        <v>410750.1273166242</v>
+        <v>410750.1273166247</v>
       </c>
       <c r="O6" t="n">
-        <v>410750.1273166245</v>
+        <v>410750.1273166243</v>
       </c>
       <c r="P6" t="n">
-        <v>410750.1273166245</v>
+        <v>410750.1273166239</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="C4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
@@ -26808,7 +26808,7 @@
         <v>884.6650629816791</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26820,7 +26820,7 @@
         <v>1184.07479867482</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="M2" t="n">
-        <v>44.27458312563451</v>
+        <v>44.27458312563442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.43813193010996</v>
+        <v>10.43813193011016</v>
       </c>
       <c r="E4" t="n">
         <v>869.362325466544</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6713982269356</v>
+        <v>129.6713982269354</v>
       </c>
       <c r="J4" t="n">
         <v>185.0410749813407</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>699.6239880003382</v>
+        <v>699.6239880003386</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.43813193010996</v>
+        <v>10.43813193011016</v>
       </c>
       <c r="M4" t="n">
         <v>869.362325466544</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>7.664544755322424</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>204.1554640012203</v>
+        <v>204.7353249869554</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>218.2312439791065</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>132.4789115781855</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3708386514714</v>
+        <v>107.3708386514716</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.29322856761804</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>167.3984265045477</v>
+        <v>166.8185655188129</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>221.6566374816849</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>246.8303775758947</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>140.5564424379062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3625669224145</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>17.40488624085776</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>81.87729865240429</v>
+        <v>81.2974376666695</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.0086467778796</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>219.1519924519474</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>247.2730377388031</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.1900575164771</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>7.084683769587429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>218.2312439791065</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>344.9562241181231</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8438934032907</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>143.1603209653488</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27746,22 +27746,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>195.3001231097967</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>227.9359815644004</v>
       </c>
       <c r="W6" t="n">
-        <v>247.4102385616295</v>
+        <v>246.8303775758947</v>
       </c>
       <c r="X6" t="n">
-        <v>200.9083796184524</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.8180901922793</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>174.9673745969124</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>162.3822155136029</v>
       </c>
       <c r="D7" t="n">
-        <v>147.0521691540288</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>141.5693570615441</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>140.5564424379062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.1263737734337</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>219.7318534376823</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>213.7200477670699</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,22 +27898,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
-        <v>193.7173320711103</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>244.743047446217</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>342.6383632557935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27947,10 +27947,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27983,13 +27983,13 @@
         <v>158.2045199005069</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
         <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>163.8147401738385</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185917</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="C32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="D32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="E32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="F32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="G32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="H32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="I32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="T32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="U32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="V32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="W32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="X32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="C34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="D34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="E34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="F34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="G34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="H34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="I34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="J34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="K34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="L34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="M34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="N34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="O34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="P34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="R34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="S34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="T34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="U34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="V34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="W34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="X34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.700553492958049</v>
+        <v>2.70055349295816</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
         <v>46.97513661859257</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,10 +32801,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33275,7 +33275,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="M2" t="n">
-        <v>4.864605585025089</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="N2" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.668055864418015</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="P2" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.668055864418017</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="M4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="N4" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="O4" t="n">
-        <v>4.668055864418015</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.864605585025089</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="L5" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.668055864418015</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="O5" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.864605585025089</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="O6" t="n">
-        <v>4.668055864418015</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="M7" t="n">
-        <v>4.864605585025089</v>
+        <v>4.66805586441782</v>
       </c>
       <c r="N7" t="n">
-        <v>4.668055864418015</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="O7" t="n">
-        <v>4.864605585025089</v>
+        <v>4.864605585024886</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O10" t="n">
         <v>15.30273751513505</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>609.6643515842148</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>461.6966701685637</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>594.1075856056816</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>718.9553662530634</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>497.395864585101</v>
       </c>
       <c r="M17" t="n">
-        <v>749.8234811950707</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120755</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>749.8234811950696</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>718.9553662530634</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629116</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36288,7 +36288,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>785.7552219287309</v>
       </c>
       <c r="O23" t="n">
-        <v>814.7404961971461</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36449,10 +36449,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>778.3512449206485</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>479.1168728852477</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36835,25 +36835,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>563.0941552070888</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>377.179901481045</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>319.5703068802504</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>456.1934911739605</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,7 +37078,7 @@
         <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509644</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.27897010602425</v>
+        <v>48.27897010602436</v>
       </c>
       <c r="K34" t="n">
-        <v>208.7482130372776</v>
+        <v>208.7482130372777</v>
       </c>
       <c r="L34" t="n">
-        <v>322.4579256631561</v>
+        <v>322.4579256631562</v>
       </c>
       <c r="M34" t="n">
-        <v>350.3339328864418</v>
+        <v>350.3339328864419</v>
       </c>
       <c r="N34" t="n">
-        <v>347.5574996604981</v>
+        <v>347.5574996604982</v>
       </c>
       <c r="O34" t="n">
-        <v>305.0536837155978</v>
+        <v>305.0536837155979</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6576246380684</v>
+        <v>237.6576246380685</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.09479203085168</v>
+        <v>81.09479203085179</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>698.2880119162074</v>
+        <v>795.0547863356111</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37385,10 +37385,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37546,25 +37546,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397233</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>889.1354172278216</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>574.0516558380588</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509644</v>
@@ -37798,7 +37798,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>272.5441252288677</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,10 +37953,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637032</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>855.7934116805436</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>793.272910848855</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
